--- a/normative.xlsx
+++ b/normative.xlsx
@@ -393,20 +393,19 @@
   </sheetPr>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E86" activeCellId="0" sqref="E86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H40" activeCellId="0" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="27.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -419,8 +418,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -433,107 +432,107 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="25.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>252.525</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="30.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="31.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.403</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.009</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.092</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+        <v>0.052</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>80.741</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="49.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>138.793</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="45.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>173.456</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="51.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="36.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>0.474</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -543,8 +542,8 @@
         <v>0.07</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -555,73 +554,73 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="53.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="46.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="53.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="42.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="63.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="62.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="33.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -631,41 +630,41 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" customFormat="false" ht="55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="25.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="36.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="36.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="47.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="50.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -676,51 +675,51 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="4" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="70.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="70.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>8.651</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="70.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>976.909</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="25.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -730,19 +729,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="4" t="n">
-        <v>0.034</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -756,106 +755,106 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="4" t="n">
-        <v>252.525</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="4" t="n">
-        <v>2.403</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="4" t="n">
-        <v>0.009</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="4" t="n">
-        <v>1.092</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="37.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>80.741</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="47.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="4" t="n">
-        <v>138.793</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>173.456</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>0.474</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="43.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -866,7 +865,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="43.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -877,73 +876,73 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>0.013</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>0.003</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="6" t="n">
-        <v>3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>0.01</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="32.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -954,40 +953,40 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="51.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.02</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="23.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="46.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -998,51 +997,51 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="66.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="66.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>8.651</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="65.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>976.909</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -1053,18 +1052,18 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -1077,8 +1076,8 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="25.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -1088,8 +1087,8 @@
         <v>252.525</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="31.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -1099,8 +1098,8 @@
         <v>2.403</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -1110,8 +1109,8 @@
         <v>0.009</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -1121,8 +1120,8 @@
         <v>1.092</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" customFormat="false" ht="38.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -1132,8 +1131,8 @@
         <v>80.741</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" customFormat="false" ht="47.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -1143,8 +1142,8 @@
         <v>138.793</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="45.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -1154,8 +1153,8 @@
         <v>173.456</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="51.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="68" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -1165,8 +1164,8 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="36.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -1177,7 +1176,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -1188,7 +1187,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -1198,8 +1197,8 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="31.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -1209,8 +1208,8 @@
         <v>0.013</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="46.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -1220,8 +1219,8 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="53.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row r="74" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -1231,8 +1230,8 @@
         <v>0.003</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="42.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="75" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -1242,8 +1241,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="76" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -1253,8 +1252,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="62.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="77" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -1264,8 +1263,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="78" customFormat="false" ht="32.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -1275,8 +1274,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -1286,8 +1285,8 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="25.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    <row r="80" customFormat="false" ht="23.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -1297,8 +1296,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="36.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="81" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -1308,8 +1307,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="50.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    <row r="82" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -1320,7 +1319,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B83" s="7" t="s">
@@ -1331,7 +1330,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B84" s="7" t="s">
@@ -1341,8 +1340,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="70.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+    <row r="85" customFormat="false" ht="66.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B85" s="7" t="s">
@@ -1352,8 +1351,8 @@
         <v>8.651</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="70.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+    <row r="86" customFormat="false" ht="65.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B86" s="7" t="s">
@@ -1363,8 +1362,8 @@
         <v>976.909</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="25.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    <row r="87" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B87" s="7" t="s">
@@ -1374,8 +1373,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+    <row r="88" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B88" s="7" t="s">
